--- a/tests/files/test.xlsx
+++ b/tests/files/test.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1056096\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://akgr01-my.sharepoint.com/personal/inoue_ncm_om_asahi-kasei_co_jp/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F088F5A9-DC83-4FAE-9274-EBCF835E9EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{2A8E3A56-9BF3-4C6D-8E2D-9977C0D5DDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90218EC1-7118-403F-85E4-891504CB5B4C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{23E8F152-241E-4398-9742-A7FF30304CBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3107955B-35B4-423E-A3B3-432ECF235B08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="数列1">Sheet2!$A$1:$A$5</definedName>
+    <definedName name="数列1">Sheet4!$A$2:$A$6</definedName>
+    <definedName name="数列２" localSheetId="3">Sheet4!$B$2:$B$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,6 +40,293 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>空欄</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リテラル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式（リテラル）</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式（参照なし関数）</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式（参照のみ）</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式（参照のみ$つき）</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式（参照四則演算）</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シソクエンザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式（範囲2）</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式（範囲10）</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式（範囲11）</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式（範囲20）</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式（関数in関数）</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別シート</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多重参照</t>
+    <rPh sb="0" eb="4">
+      <t>タジュウサンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義された名前（Book）</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義された名前（Sheet）</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数列1</t>
+    <rPh sb="0" eb="2">
+      <t>スウレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数列２</t>
+    <rPh sb="0" eb="2">
+      <t>スウレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lookup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vlookup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hlookup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xlookup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,8 +370,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -100,6 +395,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F1BEE86-AE06-4777-9D1A-161FF88CE070}" name="テーブル1" displayName="テーブル1" ref="E1:G4" totalsRowShown="0">
+  <autoFilter ref="E1:G4" xr:uid="{3F1BEE86-AE06-4777-9D1A-161FF88CE070}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1492C029-3C25-442C-BB2F-5C20E1008C0A}" name="列1"/>
+    <tableColumn id="2" xr3:uid="{921E1461-FE24-4767-9A54-D1432B0E6425}" name="列2"/>
+    <tableColumn id="3" xr3:uid="{190BD8F6-FBC8-4372-A47F-6668ACCEB0EF}" name="列3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,41 +705,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CF7AD5-AD2F-4C1A-AF70-37DA537FFDD8}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272ABF6B-6D29-4D50-BF1F-12B11058CFCB}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1">
-        <f>B1+B2</f>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2">
+        <v>36526</v>
+      </c>
+      <c r="G1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
+        <v>36527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>36528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f ca="1">NOW()</f>
+        <v>45550.115148842589</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>36529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>B2</f>
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>36530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>$B$2</f>
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>36531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>B2+$B$3</f>
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
+        <v>36532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>SUM($C$1:C2)</f>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <v>36533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(C1:C10)</f>
+        <v>5.5</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2">
+        <v>36534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>SUM(C1:C11)</f>
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2">
+        <v>36535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(C1:C20)</f>
+        <v>10.5</v>
+      </c>
+      <c r="C11">
         <v>11</v>
       </c>
-      <c r="B1">
-        <f>SUM(C1:D2)</f>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2">
+        <v>36536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>IF(C1=1,"",SUM(C1:C5))</f>
+        <v/>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2">
+        <v>36537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>SUM(Sheet2!$A$1:$B$2)-SUM(Sheet3!A1:C2)</f>
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2">
+        <v>36538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <f>Sheet2!E1+Sheet2!E2</f>
+        <v>22.577248331645034</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2">
+        <v>36539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <f>SUM(数列1)</f>
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2">
+        <v>36540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <f>Sheet4!C1</f>
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2">
+        <v>36541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <f>LOOKUP($G$1,$C$1:$C$20)</f>
         <v>8</v>
       </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2">
+        <v>36542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <f>VLOOKUP($G$1,$C$1:$E$20,3,TRUE)</f>
+        <v>36533</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2">
+        <v>36543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <f>HLOOKUP($G$1,$C$8:$E$20,2)</f>
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2">
+        <v>36544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="str">
+        <f>_xlfn.XLOOKUP($G$1,$C$1:$C$10,$D$1:$D$10,NA(),0,-1)</f>
+        <v>i</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2">
+        <v>36545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <f>MATCH($G$1,C1:C10)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B2">
-        <f>AVERAGE(数列1)</f>
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>-4</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <f ca="1">OFFSET($C$1,3,2,1,1)</f>
+        <v>36529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <f>SUM(テーブル1[])</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -442,58 +1111,413 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92FDBCF-5769-4563-BCB6-CF7D32F224EA}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A29E8D-9461-4C96-AC99-074CE7938B27}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <f ca="1">VLOOKUP($A1,Sheet3!$A$1:$B$10,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <f>A1+B1</f>
+        <v>11</v>
+      </c>
+      <c r="D1">
+        <f>B1*C1</f>
+        <v>110</v>
+      </c>
+      <c r="E1">
+        <f>SQRT(D1+A1)</f>
+        <v>10.535653752852738</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <f ca="1">VLOOKUP($A2,Sheet3!$A$1:$B$10,2)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C20" si="0">A2+B2</f>
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D20" si="1">B2*C2</f>
+        <v>143</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E20" si="2">SQRT(D2+A2)</f>
+        <v>12.041594578792296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
-        <f ca="1">VLOOKUP($A3,Sheet3!$A$1:$B$10,2)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="2"/>
+        <v>13.527749258468683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <f ca="1">VLOOKUP($A4,Sheet3!$A$1:$B$10,2)</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <f ca="1">VLOOKUP($A5,Sheet3!$A$1:$B$10,2)</f>
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>16.46207763315433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>17.916472867168917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>19.364916731037084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>425</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>20.808652046684813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>9</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>486</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>22.248595461286989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>551</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>23.685438564654021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>620</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>25.119713374160941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>693</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>26.551836094703507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>27.982137159266443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>851</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>29.410882339705484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>936</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>30.838287890218549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1025</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>32.264531609803356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1118</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>33.689761055846034</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1215</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>35.114099732158877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1316</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>36.537651812890218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1421</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>37.960505792204614</v>
       </c>
     </row>
   </sheetData>
@@ -503,107 +1527,752 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA077809-2F96-435B-9991-54D321F00BB1}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1932E5-8D14-411A-A09A-F0B9F0FD9CE2}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B10" ca="1" si="0">RANDBETWEEN(-10,10)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360CE1E5-F5F4-4EC8-804D-6969ABC618BC}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1">
+        <f>AVERAGE(数列２)</f>
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101001BF45BE5A76AC946BC89B9DA5CE72337" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="4f89e988b63175b2c7b400cc70fa016d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3f3347e6-5da4-4812-a202-cde50552ebb0" xmlns:ns4="691b9720-4b8b-48c1-93ce-f8123b4d9633" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d84c385ec415aab8676943c81be7c05" ns3:_="" ns4:_="">
+    <xsd:import namespace="3f3347e6-5da4-4812-a202-cde50552ebb0"/>
+    <xsd:import namespace="691b9720-4b8b-48c1-93ce-f8123b4d9633"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3f3347e6-5da4-4812-a202-cde50552ebb0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="共有のヒントのハッシュ" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="691b9720-4b8b-48c1-93ce-f8123b4d9633" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="17" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="20" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="691b9720-4b8b-48c1-93ce-f8123b4d9633" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C926EE4-A05D-424C-8276-F6F867B23749}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3f3347e6-5da4-4812-a202-cde50552ebb0"/>
+    <ds:schemaRef ds:uri="691b9720-4b8b-48c1-93ce-f8123b4d9633"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DCBCC0-7B7F-4AFF-A0DB-DA3E50BAB4C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C5C7A72-22BA-4ED0-9117-A88D3910DF54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3f3347e6-5da4-4812-a202-cde50552ebb0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="691b9720-4b8b-48c1-93ce-f8123b4d9633"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>